--- a/BLOCOPROJETO.xlsx
+++ b/BLOCOPROJETO.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Netto\PycharmProjects\projetos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Netto\Documents\pedidoVisual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C168AFA0-3D67-4846-B58C-09011B8F71DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A29A7D-8CBA-45FC-8A13-32B1A60BE13C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Planilha1!$A$1:$U$33</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
@@ -402,6 +405,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -414,64 +447,117 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -481,7 +567,6 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -491,31 +576,6 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -524,63 +584,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -979,7 +982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H33" sqref="A1:U33"/>
     </sheetView>
   </sheetViews>
@@ -1007,910 +1010,1008 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="101.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="5"/>
+      <c r="A1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="19"/>
     </row>
     <row r="2" spans="1:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="9" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="12"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="4"/>
     </row>
     <row r="3" spans="1:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="17"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="7"/>
     </row>
     <row r="4" spans="1:21" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="20" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="21"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="9"/>
     </row>
     <row r="5" spans="1:21" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="22" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="22"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="17"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="7"/>
     </row>
     <row r="6" spans="1:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="14" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="12"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="4"/>
     </row>
     <row r="7" spans="1:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="29" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="29" t="s">
+      <c r="D7" s="19"/>
+      <c r="E7" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="29" t="s">
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="29" t="s">
+      <c r="P7" s="18"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="5"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="19"/>
     </row>
     <row r="8" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="30" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34" t="s">
+      <c r="D8" s="39"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="35" t="s">
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="31"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="34"/>
     </row>
     <row r="9" spans="1:21" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="30" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="38" t="s">
+      <c r="D9" s="39"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="39" t="s">
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="31"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="34"/>
     </row>
     <row r="10" spans="1:21" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="30" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="38" t="s">
+      <c r="D10" s="34"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="39" t="s">
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="32"/>
-      <c r="U10" s="31"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="34"/>
     </row>
     <row r="11" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="30"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="30" t="s">
+      <c r="A11" s="33"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="38" t="s">
+      <c r="D11" s="34"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="39" t="s">
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="31"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="34"/>
     </row>
     <row r="12" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="30" t="s">
+      <c r="A12" s="33"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="38" t="s">
+      <c r="D12" s="34"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="39" t="s">
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="31"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="34"/>
     </row>
     <row r="13" spans="1:21" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="45"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="47"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="53"/>
     </row>
     <row r="14" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="30" t="s">
+      <c r="A14" s="33"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="38" t="s">
+      <c r="D14" s="39"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="39" t="s">
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="31"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="34"/>
     </row>
     <row r="15" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="48"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="30" t="s">
+      <c r="A15" s="35"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="44"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="50" t="s">
         <v>19</v>
       </c>
       <c r="G15" s="50"/>
       <c r="H15" s="50"/>
       <c r="I15" s="50"/>
-      <c r="J15" s="51" t="s">
+      <c r="J15" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="54"/>
-      <c r="T15" s="54"/>
-      <c r="U15" s="49"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="36"/>
     </row>
     <row r="16" spans="1:21" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="55"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="57"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="55"/>
+      <c r="U16" s="56"/>
     </row>
     <row r="17" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="30" t="s">
+      <c r="A17" s="33"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="38" t="s">
+      <c r="D17" s="34"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="39" t="s">
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="31"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="34"/>
     </row>
     <row r="18" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="48"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="48" t="s">
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="33"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="13"/>
       <c r="F18" s="50" t="s">
         <v>20</v>
       </c>
       <c r="G18" s="50"/>
       <c r="H18" s="50"/>
       <c r="I18" s="50"/>
-      <c r="J18" s="51" t="s">
+      <c r="J18" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="49"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="36"/>
     </row>
     <row r="19" spans="1:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="55"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="57"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="55"/>
+      <c r="U19" s="56"/>
     </row>
     <row r="20" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="30" t="s">
+      <c r="A20" s="33"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="38" t="s">
+      <c r="D20" s="34"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="39" t="s">
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="31"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="34"/>
     </row>
     <row r="21" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="30"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="30" t="s">
+      <c r="A21" s="33"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="38" t="s">
+      <c r="D21" s="34"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="39" t="s">
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="31"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="34"/>
     </row>
     <row r="22" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="58"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="59"/>
-      <c r="U22" s="60"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="58"/>
+      <c r="R22" s="58"/>
+      <c r="S22" s="58"/>
+      <c r="T22" s="58"/>
+      <c r="U22" s="59"/>
     </row>
     <row r="23" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="30"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="30" t="s">
+      <c r="A23" s="33"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="38" t="s">
+      <c r="D23" s="39"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="39" t="s">
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="31"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="34"/>
     </row>
     <row r="24" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="48"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="48" t="s">
+      <c r="A24" s="35"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="54"/>
-      <c r="E24" s="33"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="13"/>
       <c r="F24" s="50" t="s">
         <v>24</v>
       </c>
       <c r="G24" s="50"/>
       <c r="H24" s="50"/>
       <c r="I24" s="50"/>
-      <c r="J24" s="51" t="s">
+      <c r="J24" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="54"/>
-      <c r="T24" s="54"/>
-      <c r="U24" s="49"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="36"/>
     </row>
     <row r="25" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="55"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="57"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="56"/>
     </row>
     <row r="26" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="48"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="48" t="s">
+      <c r="A26" s="35"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="54"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="38" t="s">
+      <c r="D26" s="40"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="48"/>
-      <c r="S26" s="54"/>
-      <c r="T26" s="54"/>
-      <c r="U26" s="49"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="69"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="36"/>
     </row>
     <row r="27" spans="1:21" s="2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="61"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="61" t="s">
+      <c r="A27" s="31"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="62"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="38" t="s">
+      <c r="D27" s="63"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="64"/>
-      <c r="O27" s="61"/>
-      <c r="P27" s="65"/>
-      <c r="Q27" s="62"/>
-      <c r="R27" s="61"/>
-      <c r="S27" s="65"/>
-      <c r="T27" s="65"/>
-      <c r="U27" s="62"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="62"/>
+      <c r="T27" s="62"/>
+      <c r="U27" s="63"/>
     </row>
     <row r="28" spans="1:21" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="66"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="66" t="s">
+      <c r="A28" s="37"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="68"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="38" t="s">
+      <c r="D28" s="49"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="66"/>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="67"/>
-      <c r="R28" s="66"/>
-      <c r="S28" s="68"/>
-      <c r="T28" s="68"/>
-      <c r="U28" s="67"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="38"/>
     </row>
     <row r="29" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="30"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="30" t="s">
+      <c r="A29" s="33"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="38" t="s">
+      <c r="D29" s="39"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="32"/>
-      <c r="T29" s="32"/>
-      <c r="U29" s="31"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="34"/>
     </row>
     <row r="30" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="30"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="30" t="s">
+      <c r="A30" s="33"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="38" t="s">
+      <c r="D30" s="39"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="32"/>
-      <c r="T30" s="32"/>
-      <c r="U30" s="31"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="34"/>
     </row>
     <row r="31" spans="1:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="30"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="30" t="s">
+      <c r="A31" s="33"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="38" t="s">
+      <c r="D31" s="39"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="32"/>
-      <c r="T31" s="32"/>
-      <c r="U31" s="31"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="68"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="34"/>
     </row>
     <row r="32" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="69" t="s">
+      <c r="A32" s="33"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="32"/>
-      <c r="T32" s="32"/>
-      <c r="U32" s="31"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="33"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="34"/>
     </row>
     <row r="33" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="61" t="s">
+      <c r="A33" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="71"/>
-      <c r="O33" s="71"/>
-      <c r="P33" s="71"/>
-      <c r="Q33" s="71"/>
-      <c r="R33" s="71"/>
-      <c r="S33" s="71"/>
-      <c r="T33" s="71"/>
-      <c r="U33" s="72"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="46"/>
+      <c r="T33" s="46"/>
+      <c r="U33" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="142">
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:O2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:N4"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="P4:T4"/>
-    <mergeCell ref="N5:T5"/>
-    <mergeCell ref="D3:P3"/>
-    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="J24:N24"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="J28:N28"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="A22:U22"/>
+    <mergeCell ref="A25:U25"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="R27:U27"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="A13:U13"/>
+    <mergeCell ref="A16:U16"/>
+    <mergeCell ref="A19:U19"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="H33:U33"/>
+    <mergeCell ref="A32:N32"/>
+    <mergeCell ref="R29:U29"/>
+    <mergeCell ref="R30:U30"/>
+    <mergeCell ref="R31:U31"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="R32:U32"/>
+    <mergeCell ref="R23:U23"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="R26:U26"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="R21:U21"/>
+    <mergeCell ref="R14:U14"/>
+    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="L6:T6"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="E7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="O11:Q11"/>
     <mergeCell ref="A33:G33"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
@@ -1935,114 +2036,16 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="L6:T6"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="E7:N7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="R21:U21"/>
-    <mergeCell ref="R14:U14"/>
-    <mergeCell ref="R15:U15"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="H33:U33"/>
-    <mergeCell ref="A32:N32"/>
-    <mergeCell ref="R29:U29"/>
-    <mergeCell ref="R30:U30"/>
-    <mergeCell ref="R31:U31"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="R32:U32"/>
-    <mergeCell ref="R23:U23"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="R26:U26"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="A13:U13"/>
-    <mergeCell ref="A16:U16"/>
-    <mergeCell ref="A19:U19"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="A22:U22"/>
-    <mergeCell ref="A25:U25"/>
-    <mergeCell ref="J27:N27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="R27:U27"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="J9:N9"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="J15:N15"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="J21:N21"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="J24:N24"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="J28:N28"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:O2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:N4"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="N5:T5"/>
+    <mergeCell ref="D3:P3"/>
+    <mergeCell ref="Q3:T3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/BLOCOPROJETO.xlsx
+++ b/BLOCOPROJETO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Netto\Documents\pedidoVisual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A29A7D-8CBA-45FC-8A13-32B1A60BE13C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4513D63-587C-4073-A7F0-54A42628969A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -401,7 +401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -435,25 +435,143 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -461,129 +579,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -983,7 +980,7 @@
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H33" sqref="A1:U33"/>
+      <selection activeCell="H6" sqref="H6:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,53 +1007,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="101.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="19"/>
+      <c r="A1" s="64"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
       <c r="P2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
       <c r="U2" s="4"/>
     </row>
     <row r="3" spans="1:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1065,77 +1062,77 @@
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
       <c r="U3" s="7"/>
     </row>
     <row r="4" spans="1:21" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
       <c r="O4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="58"/>
       <c r="U4" s="9"/>
     </row>
     <row r="5" spans="1:21" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
       <c r="L5" s="10" t="s">
         <v>6</v>
       </c>
       <c r="M5" s="10"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
       <c r="U5" s="7"/>
     </row>
     <row r="6" spans="1:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1148,762 +1145,880 @@
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="42"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="K6" s="6"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
       <c r="U6" s="4"/>
     </row>
     <row r="7" spans="1:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="32" t="s">
+      <c r="B7" s="52"/>
+      <c r="C7" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="32" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="32" t="s">
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="32" t="s">
+      <c r="P7" s="51"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="19"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="52"/>
     </row>
     <row r="8" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="33"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="33" t="s">
+      <c r="A8" s="41"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="39"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="13"/>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="64" t="s">
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="34"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="42"/>
     </row>
     <row r="9" spans="1:21" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="33"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="33" t="s">
+      <c r="A9" s="41"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="39"/>
+      <c r="D9" s="47"/>
       <c r="E9" s="13"/>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="67" t="s">
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="34"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="42"/>
     </row>
     <row r="10" spans="1:21" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="33"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="33" t="s">
+      <c r="A10" s="41"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="34"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="67" t="s">
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="34"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="42"/>
     </row>
     <row r="11" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="33"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="33" t="s">
+      <c r="A11" s="41"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="34"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="15"/>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="67" t="s">
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="34"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="42"/>
     </row>
     <row r="12" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="33"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="33" t="s">
+      <c r="A12" s="41"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="34"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="16"/>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="67" t="s">
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="34"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="42"/>
     </row>
     <row r="13" spans="1:21" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="51"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="53"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="46"/>
     </row>
     <row r="14" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="33"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="33" t="s">
+      <c r="A14" s="41"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="39"/>
+      <c r="D14" s="47"/>
       <c r="E14" s="13"/>
-      <c r="F14" s="44" t="s">
+      <c r="F14" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="67" t="s">
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="34"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="42"/>
     </row>
     <row r="15" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="35"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="33" t="s">
+      <c r="A15" s="39"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="34"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="16"/>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="70" t="s">
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="35"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="39"/>
       <c r="P15" s="40"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="35"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="39"/>
       <c r="S15" s="40"/>
       <c r="T15" s="40"/>
-      <c r="U15" s="36"/>
+      <c r="U15" s="43"/>
     </row>
     <row r="16" spans="1:21" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="54"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="55"/>
-      <c r="U16" s="56"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="33"/>
     </row>
     <row r="17" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="33"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="33" t="s">
+      <c r="A17" s="41"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="34"/>
+      <c r="D17" s="42"/>
       <c r="E17" s="15"/>
-      <c r="F17" s="44" t="s">
+      <c r="F17" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="67" t="s">
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="34"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="42"/>
     </row>
     <row r="18" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="35"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="35" t="s">
+      <c r="A18" s="39"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="39" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="40"/>
       <c r="E18" s="13"/>
-      <c r="F18" s="50" t="s">
+      <c r="F18" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="70" t="s">
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="35"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="39"/>
       <c r="P18" s="40"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="35"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="39"/>
       <c r="S18" s="40"/>
       <c r="T18" s="40"/>
-      <c r="U18" s="36"/>
+      <c r="U18" s="43"/>
     </row>
     <row r="19" spans="1:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="54"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="55"/>
-      <c r="S19" s="55"/>
-      <c r="T19" s="55"/>
-      <c r="U19" s="56"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="33"/>
     </row>
     <row r="20" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="33"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="33" t="s">
+      <c r="A20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="34"/>
+      <c r="D20" s="42"/>
       <c r="E20" s="15"/>
-      <c r="F20" s="44" t="s">
+      <c r="F20" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="67" t="s">
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="69"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="34"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="42"/>
     </row>
     <row r="21" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="33" t="s">
+      <c r="A21" s="41"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="34"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="16"/>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="67" t="s">
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="34"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="42"/>
     </row>
     <row r="22" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="57"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="58"/>
-      <c r="R22" s="58"/>
-      <c r="S22" s="58"/>
-      <c r="T22" s="58"/>
-      <c r="U22" s="59"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="30"/>
     </row>
     <row r="23" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="33"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="33" t="s">
+      <c r="A23" s="41"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="39"/>
+      <c r="D23" s="47"/>
       <c r="E23" s="13"/>
-      <c r="F23" s="44" t="s">
+      <c r="F23" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="67" t="s">
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="K23" s="68"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="69"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="34"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="42"/>
     </row>
     <row r="24" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="35"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="35" t="s">
+      <c r="A24" s="39"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="39" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="40"/>
       <c r="E24" s="13"/>
-      <c r="F24" s="50" t="s">
+      <c r="F24" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="70" t="s">
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="35"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="39"/>
       <c r="P24" s="40"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="35"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="39"/>
       <c r="S24" s="40"/>
       <c r="T24" s="40"/>
-      <c r="U24" s="36"/>
+      <c r="U24" s="43"/>
     </row>
     <row r="25" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="54"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="55"/>
-      <c r="S25" s="55"/>
-      <c r="T25" s="55"/>
-      <c r="U25" s="56"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="33"/>
     </row>
     <row r="26" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="35"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="35" t="s">
+      <c r="A26" s="39"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="39" t="s">
         <v>30</v>
       </c>
       <c r="D26" s="40"/>
       <c r="E26" s="13"/>
-      <c r="F26" s="44" t="s">
+      <c r="F26" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="68"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="35"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="39"/>
       <c r="P26" s="40"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="35"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="39"/>
       <c r="S26" s="40"/>
       <c r="T26" s="40"/>
-      <c r="U26" s="36"/>
+      <c r="U26" s="43"/>
     </row>
     <row r="27" spans="1:21" s="2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="31"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="31" t="s">
+      <c r="A27" s="36"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="63"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="13"/>
-      <c r="F27" s="44" t="s">
+      <c r="F27" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="61"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="63"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="62"/>
-      <c r="T27" s="62"/>
-      <c r="U27" s="63"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="38"/>
     </row>
     <row r="28" spans="1:21" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="37"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="37" t="s">
+      <c r="A28" s="54"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="49"/>
+      <c r="D28" s="55"/>
       <c r="E28" s="13"/>
-      <c r="F28" s="44" t="s">
+      <c r="F28" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="69"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="49"/>
-      <c r="T28" s="49"/>
-      <c r="U28" s="38"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="56"/>
     </row>
     <row r="29" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="33"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="33" t="s">
+      <c r="A29" s="41"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="39"/>
+      <c r="D29" s="47"/>
       <c r="E29" s="13"/>
-      <c r="F29" s="44" t="s">
+      <c r="F29" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="68"/>
-      <c r="M29" s="68"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="39"/>
-      <c r="T29" s="39"/>
-      <c r="U29" s="34"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="47"/>
+      <c r="U29" s="42"/>
     </row>
     <row r="30" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="33"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="33" t="s">
+      <c r="A30" s="41"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="39"/>
+      <c r="D30" s="47"/>
       <c r="E30" s="13"/>
-      <c r="F30" s="44" t="s">
+      <c r="F30" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="67"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="68"/>
-      <c r="N30" s="69"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="34"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="47"/>
+      <c r="T30" s="47"/>
+      <c r="U30" s="42"/>
     </row>
     <row r="31" spans="1:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="33"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="33" t="s">
+      <c r="A31" s="41"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="39"/>
+      <c r="D31" s="47"/>
       <c r="E31" s="13"/>
-      <c r="F31" s="44" t="s">
+      <c r="F31" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="68"/>
-      <c r="N31" s="69"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="39"/>
-      <c r="T31" s="39"/>
-      <c r="U31" s="34"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="41"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="42"/>
     </row>
     <row r="32" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="33"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="48" t="s">
+      <c r="A32" s="41"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="33"/>
-      <c r="S32" s="39"/>
-      <c r="T32" s="39"/>
-      <c r="U32" s="34"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="47"/>
+      <c r="T32" s="47"/>
+      <c r="U32" s="42"/>
     </row>
     <row r="33" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="46"/>
-      <c r="T33" s="46"/>
-      <c r="U33" s="47"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="142">
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:O2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:N4"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="N5:T5"/>
+    <mergeCell ref="D3:P3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="L6:T6"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="E7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="R21:U21"/>
+    <mergeCell ref="R14:U14"/>
+    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="H33:U33"/>
+    <mergeCell ref="A32:N32"/>
+    <mergeCell ref="R29:U29"/>
+    <mergeCell ref="R30:U30"/>
+    <mergeCell ref="R31:U31"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="R32:U32"/>
+    <mergeCell ref="R23:U23"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="R26:U26"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="A13:U13"/>
+    <mergeCell ref="A16:U16"/>
+    <mergeCell ref="A19:U19"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="A22:U22"/>
+    <mergeCell ref="A25:U25"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="R27:U27"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
     <mergeCell ref="F31:I31"/>
     <mergeCell ref="J8:N8"/>
     <mergeCell ref="J9:N9"/>
@@ -1928,124 +2043,6 @@
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="F26:I26"/>
     <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="A22:U22"/>
-    <mergeCell ref="A25:U25"/>
-    <mergeCell ref="J27:N27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="R27:U27"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="A13:U13"/>
-    <mergeCell ref="A16:U16"/>
-    <mergeCell ref="A19:U19"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="H33:U33"/>
-    <mergeCell ref="A32:N32"/>
-    <mergeCell ref="R29:U29"/>
-    <mergeCell ref="R30:U30"/>
-    <mergeCell ref="R31:U31"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="R32:U32"/>
-    <mergeCell ref="R23:U23"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="R26:U26"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="R21:U21"/>
-    <mergeCell ref="R14:U14"/>
-    <mergeCell ref="R15:U15"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="L6:T6"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="E7:N7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:O2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:N4"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="P4:T4"/>
-    <mergeCell ref="N5:T5"/>
-    <mergeCell ref="D3:P3"/>
-    <mergeCell ref="Q3:T3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/BLOCOPROJETO.xlsx
+++ b/BLOCOPROJETO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Netto\Documents\pedidoVisual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4513D63-587C-4073-A7F0-54A42628969A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BBB5B4-628F-4509-AA7B-9758F83EFD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -137,7 +137,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;\-0;;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,16 +195,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
       <color rgb="FFFF0000"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
@@ -401,7 +415,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -410,31 +424,23 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -465,22 +471,22 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -488,58 +494,88 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -547,21 +583,36 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -572,15 +623,19 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -605,13 +660,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1267001</xdr:rowOff>
     </xdr:to>
@@ -636,8 +691,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19050" y="9524"/>
-          <a:ext cx="5829300" cy="1257477"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5876925" cy="1267001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -980,7 +1035,7 @@
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:I6"/>
+      <selection activeCell="Q3" sqref="Q3:T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,7 +1047,7 @@
     <col min="7" max="7" width="3.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="20.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="3.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="3.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" style="13" customWidth="1"/>
     <col min="11" max="11" width="2" style="1" customWidth="1"/>
     <col min="12" max="12" width="4" style="1" customWidth="1"/>
     <col min="13" max="13" width="3.5703125" style="1" customWidth="1"/>
@@ -1007,897 +1062,897 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="101.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64"/>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="52"/>
-    </row>
-    <row r="2" spans="1:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="65" t="s">
+      <c r="A1" s="77"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="59"/>
+    </row>
+    <row r="2" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
       <c r="P2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
       <c r="U2" s="4"/>
     </row>
-    <row r="3" spans="1:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="7"/>
-    </row>
-    <row r="4" spans="1:21" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="67" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="6"/>
+    </row>
+    <row r="4" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="8" t="s">
+      <c r="B4" s="81"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="58"/>
-      <c r="U4" s="9"/>
-    </row>
-    <row r="5" spans="1:21" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P4" s="70"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
+      <c r="U4" s="7"/>
+    </row>
+    <row r="5" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="10" t="s">
+      <c r="B5" s="70"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="70"/>
-      <c r="T5" s="70"/>
-      <c r="U5" s="7"/>
-    </row>
-    <row r="6" spans="1:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="M5" s="12"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="84"/>
+      <c r="T5" s="84"/>
+      <c r="U5" s="6"/>
+    </row>
+    <row r="6" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="6" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="58"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
       <c r="U6" s="4"/>
     </row>
     <row r="7" spans="1:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="62" t="s">
+      <c r="B7" s="59"/>
+      <c r="C7" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="62" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="62" t="s">
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="62" t="s">
+      <c r="P7" s="58"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="S7" s="51"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="52"/>
-    </row>
-    <row r="8" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="41"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="41" t="s">
+      <c r="S7" s="58"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="59"/>
+    </row>
+    <row r="8" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="42"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="63" t="s">
+      <c r="D8" s="50"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="18" t="s">
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="42"/>
-    </row>
-    <row r="9" spans="1:21" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="41"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="41" t="s">
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="51"/>
+    </row>
+    <row r="9" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="42"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="17" t="s">
+      <c r="D9" s="50"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="21" t="s">
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="42"/>
-    </row>
-    <row r="10" spans="1:21" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="41"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="41" t="s">
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="51"/>
+    </row>
+    <row r="10" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="42"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="17" t="s">
+      <c r="D10" s="51"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="21" t="s">
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="42"/>
-    </row>
-    <row r="11" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="41"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="41" t="s">
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="51"/>
+    </row>
+    <row r="11" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="42"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="17" t="s">
+      <c r="D11" s="51"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="21" t="s">
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="42"/>
-    </row>
-    <row r="12" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="41"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="41" t="s">
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="51"/>
+    </row>
+    <row r="12" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="42"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17" t="s">
+      <c r="D12" s="51"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="21" t="s">
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="42"/>
-    </row>
-    <row r="13" spans="1:21" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="46"/>
-    </row>
-    <row r="14" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="41"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="41" t="s">
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="51"/>
+    </row>
+    <row r="13" spans="1:21" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="46"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="48"/>
+    </row>
+    <row r="14" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="42"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="17" t="s">
+      <c r="D14" s="50"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="21" t="s">
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="42"/>
-    </row>
-    <row r="15" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="39"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="41" t="s">
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="51"/>
+    </row>
+    <row r="15" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="44"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="27" t="s">
+      <c r="D15" s="51"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="24" t="s">
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="43"/>
-    </row>
-    <row r="16" spans="1:21" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="33"/>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="41"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="41" t="s">
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="61"/>
+    </row>
+    <row r="16" spans="1:21" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="31"/>
+    </row>
+    <row r="17" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="42"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="17" t="s">
+      <c r="D17" s="51"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="21" t="s">
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="42"/>
-    </row>
-    <row r="18" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="39"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="39" t="s">
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="51"/>
+    </row>
+    <row r="18" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="44"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="27" t="s">
+      <c r="D18" s="41"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="24" t="s">
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
-      <c r="U18" s="43"/>
-    </row>
-    <row r="19" spans="1:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="33"/>
-    </row>
-    <row r="20" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="41"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="41" t="s">
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="61"/>
+    </row>
+    <row r="19" spans="1:21" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="31"/>
+    </row>
+    <row r="20" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="42"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="17" t="s">
+      <c r="D20" s="51"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="21" t="s">
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="42"/>
-    </row>
-    <row r="21" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="41"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="41" t="s">
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="51"/>
+    </row>
+    <row r="21" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="42"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17" t="s">
+      <c r="D21" s="51"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="21" t="s">
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="47"/>
-      <c r="U21" s="42"/>
-    </row>
-    <row r="22" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="30"/>
-    </row>
-    <row r="23" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="41"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="41" t="s">
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="51"/>
+    </row>
+    <row r="22" spans="1:21" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="26"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="28"/>
+    </row>
+    <row r="23" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="42"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="47"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="17" t="s">
+      <c r="D23" s="50"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="21" t="s">
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="47"/>
-      <c r="T23" s="47"/>
-      <c r="U23" s="42"/>
-    </row>
-    <row r="24" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="39"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="39" t="s">
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="51"/>
+    </row>
+    <row r="24" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="44"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="40"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="27" t="s">
+      <c r="D24" s="41"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="24" t="s">
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="43"/>
-    </row>
-    <row r="25" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="33"/>
-    </row>
-    <row r="26" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="39"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="39" t="s">
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="61"/>
+    </row>
+    <row r="25" spans="1:21" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="29"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="31"/>
+    </row>
+    <row r="26" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="44"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="17" t="s">
+      <c r="D26" s="41"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="43"/>
-    </row>
-    <row r="27" spans="1:21" s="2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="36"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="36" t="s">
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="61"/>
+    </row>
+    <row r="27" spans="1:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="34"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="17" t="s">
+      <c r="D27" s="39"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="38"/>
-    </row>
-    <row r="28" spans="1:21" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="54"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="54" t="s">
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="39"/>
+    </row>
+    <row r="28" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="65"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="55"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="17" t="s">
+      <c r="D28" s="63"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="54"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="56"/>
-    </row>
-    <row r="29" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="41"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="41" t="s">
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="67"/>
+      <c r="R28" s="62"/>
+      <c r="S28" s="63"/>
+      <c r="T28" s="63"/>
+      <c r="U28" s="64"/>
+    </row>
+    <row r="29" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="42"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="47"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="17" t="s">
+      <c r="D29" s="50"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="41"/>
-      <c r="S29" s="47"/>
-      <c r="T29" s="47"/>
-      <c r="U29" s="42"/>
-    </row>
-    <row r="30" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="41"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="41" t="s">
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="50"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="51"/>
+    </row>
+    <row r="30" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="42"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="47"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="17" t="s">
+      <c r="D30" s="50"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="41"/>
-      <c r="S30" s="47"/>
-      <c r="T30" s="47"/>
-      <c r="U30" s="42"/>
-    </row>
-    <row r="31" spans="1:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="41"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="41" t="s">
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="51"/>
+    </row>
+    <row r="31" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="42"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="47"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="17" t="s">
+      <c r="D31" s="50"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="41"/>
-      <c r="S31" s="47"/>
-      <c r="T31" s="47"/>
-      <c r="U31" s="42"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="50"/>
+      <c r="T31" s="50"/>
+      <c r="U31" s="51"/>
     </row>
     <row r="32" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="41"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="51"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="53" t="s">
+      <c r="A32" s="57"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="P32" s="47"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="47"/>
-      <c r="T32" s="47"/>
-      <c r="U32" s="42"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="57"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="51"/>
     </row>
     <row r="33" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="49"/>
-      <c r="R33" s="49"/>
-      <c r="S33" s="49"/>
-      <c r="T33" s="49"/>
-      <c r="U33" s="50"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="55"/>
+      <c r="P33" s="55"/>
+      <c r="Q33" s="55"/>
+      <c r="R33" s="55"/>
+      <c r="S33" s="55"/>
+      <c r="T33" s="55"/>
+      <c r="U33" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="142">
